--- a/src/test/Mitarbeiterdaten/Max Mustermann.xlsx
+++ b/src/test/Mitarbeiterdaten/Max Mustermann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\Mitarbeiterdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\Mitarbeiterdaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418601F8-2B14-45BA-9913-5ECD7E2E7C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B3EE95-577C-4371-BDCB-C2A2871B7765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35355" yWindow="1350" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>maennlich</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>11 111 111 111</t>
   </si>
@@ -39,9 +36,6 @@
     <t>DE00 0000 0000 0000 0000 00</t>
   </si>
   <si>
-    <t>0175 2572025</t>
-  </si>
-  <si>
     <t>Daten</t>
   </si>
   <si>
@@ -51,27 +45,12 @@
     <t>maxmustermann@web.de</t>
   </si>
   <si>
-    <t>12.12.1992</t>
-  </si>
-  <si>
-    <t>01.12.2023</t>
-  </si>
-  <si>
     <t>Vorname</t>
   </si>
   <si>
     <t>Nachname</t>
   </si>
   <si>
-    <t>Geschlecht</t>
-  </si>
-  <si>
-    <t>Geburtsdatum</t>
-  </si>
-  <si>
-    <t>Eintrittsdatum</t>
-  </si>
-  <si>
     <t>Steuernummer</t>
   </si>
   <si>
@@ -81,16 +60,64 @@
     <t>IBAN</t>
   </si>
   <si>
-    <t>Telefonnummer</t>
-  </si>
-  <si>
-    <t>E-Mail</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
     <t>Mustermann</t>
+  </si>
+  <si>
+    <t>Zweitname</t>
+  </si>
+  <si>
+    <t>0175 1234567</t>
+  </si>
+  <si>
+    <t>Strasse</t>
+  </si>
+  <si>
+    <t>Musterstraße</t>
+  </si>
+  <si>
+    <t>Hausnummer</t>
+  </si>
+  <si>
+    <t>Postleitzahl</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
+  <si>
+    <t>private Telefonnummer</t>
+  </si>
+  <si>
+    <t>private E-Mail</t>
+  </si>
+  <si>
+    <t>dienstliche Telefonnummer</t>
+  </si>
+  <si>
+    <t>030 987654321</t>
+  </si>
+  <si>
+    <t>dienstliche E-Mail</t>
+  </si>
+  <si>
+    <t>Mustermann@testfirma.de</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -122,12 +149,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,11 +182,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -429,9 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -441,95 +485,144 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <v>12358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
+      <c r="B16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{CFA18DE6-0AED-4D2D-8B09-CFE58AEA95B1}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{CFA18DE6-0AED-4D2D-8B09-CFE58AEA95B1}"/>
+    <hyperlink ref="B11" r:id="rId2" xr:uid="{F0218690-B5E2-4A14-90EC-78E8EF1F8F4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
